--- a/tech-challenge/fase2/resultado.xlsx
+++ b/tech-challenge/fase2/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,29 +531,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ordem45</t>
+          <t>ordem95</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L2" t="n">
         <v>100</v>
@@ -600,33 +600,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ordem65</t>
+          <t>ordem37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -646,11 +646,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -669,40 +669,40 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ordem74</t>
+          <t>ordem69</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L4" t="n">
         <v>100</v>
@@ -710,7 +710,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -738,45 +738,49 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ordem99</t>
+          <t>ordem93</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>elétrica | pintura</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
       <c r="K5" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>pintura</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>OK</t>
@@ -807,33 +811,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ordem39</t>
+          <t>ordem44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>pintura | solda</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -843,9 +847,13 @@
         <v>-3</v>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>pintura</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>OK</t>
@@ -853,11 +861,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -871,22 +879,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>op2</t>
+          <t>op3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ordem50</t>
+          <t>ordem31</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>alvenaria | solda</t>
+          <t>alvenaria | elétrica</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>hidráulica | solda | alvenaria</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -895,7 +903,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>8</v>
@@ -906,17 +914,17 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L7" t="n">
         <v>50</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -949,17 +957,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ordem27</t>
+          <t>ordem55</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>pintura | elétrica</t>
+          <t>hidráulica | elétrica</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>alvenaria | elétrica</t>
+          <t>hidráulica | solda | alvenaria</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -968,33 +976,33 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>8</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L8" t="n">
         <v>50</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1022,17 +1030,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ordem44</t>
+          <t>ordem74</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria</t>
+          <t>alvenaria</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>alvenaria | elétrica</t>
+          <t>hidráulica | solda | alvenaria</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1041,42 +1049,38 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
         <v>8</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L9" t="n">
-        <v>50</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>hidráulica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1090,22 +1094,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>op3</t>
+          <t>op4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ordem89</t>
+          <t>ordem23</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>pintura | hidráulica</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>alvenaria | elétrica</t>
+          <t>alvenaria | solda | hidráulica</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1114,38 +1118,42 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>8</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>pintura</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1164,33 +1172,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ordem52</t>
+          <t>ordem21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>solda | hidráulica</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>alvenaria | pintura | elétrica</t>
+          <t>alvenaria | solda | hidráulica</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>8</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1210,11 +1218,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1228,45 +1236,45 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>op4</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ordem73</t>
+          <t>ordem35</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>alvenaria | pintura | elétrica</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>urgente</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L12" t="n">
         <v>100</v>
@@ -1274,16 +1282,16 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1302,45 +1310,49 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ordem78</t>
+          <t>ordem60</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>pintura | hidráulica</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>elétrica | pintura | alvenaria</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>especialista</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>50</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>hidráulica</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>hidráulica | solda | pintura</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>especialista</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>urgente</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>100</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>OK</t>
@@ -1371,17 +1383,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ordem87</t>
+          <t>ordem41</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>hidráulica | solda | pintura</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1390,26 +1402,30 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>hidráulica</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>OK</t>
@@ -1421,7 +1437,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1435,38 +1451,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ordem20</t>
+          <t>ordem62</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>pintura | alvenaria</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1476,13 +1492,9 @@
         <v>-1</v>
       </c>
       <c r="L15" t="n">
-        <v>50</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>alvenaria</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>OK</t>
@@ -1490,11 +1502,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1508,57 +1520,57 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ordem22</t>
+          <t>ordem83</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>elétrica | solda</t>
+          <t>hidráulica | elétrica</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>urgente</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L16" t="n">
         <v>50</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>hidráulica</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1567,7 +1579,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1581,53 +1593,57 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ordem11</t>
+          <t>ordem81</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>100</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>alvenaria</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1650,22 +1666,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>op8</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ordem3</t>
+          <t>ordem51</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica</t>
+          <t>solda</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1677,39 +1693,35 @@
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L18" t="n">
-        <v>50</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>hidráulica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1723,22 +1735,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>op8</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ordem48</t>
+          <t>ordem71</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>alvenaria</t>
+          <t>pintura | hidráulica</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1747,21 +1759,21 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>urgente</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L19" t="n">
         <v>100</v>
@@ -1769,16 +1781,16 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1792,34 +1804,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ordem9</t>
+          <t>ordem96</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>pintura</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1827,10 +1839,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>100</v>
@@ -1843,11 +1855,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1861,12 +1873,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ordem32</t>
+          <t>ordem100</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1876,23 +1888,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1907,16 +1919,16 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1930,38 +1942,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ordem76</t>
+          <t>ordem67</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>elétrica | solda</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>elétrica | solda</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -2004,7 +2016,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ordem92</t>
+          <t>ordem59</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2014,23 +2026,23 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -2045,16 +2057,16 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2073,22 +2085,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ordem80</t>
+          <t>ordem89</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>solda | pintura</t>
+          <t>alvenaria</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>solda | alvenaria</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2109,16 +2121,12 @@
         <v>-2</v>
       </c>
       <c r="L24" t="n">
-        <v>50</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>pintura</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2146,33 +2154,33 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ordem53</t>
+          <t>ordem25</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>solda | pintura</t>
+          <t>hidráulica</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -2182,16 +2190,12 @@
         <v>-1</v>
       </c>
       <c r="L25" t="n">
-        <v>50</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>pintura</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2219,33 +2223,33 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ordem29</t>
+          <t>ordem72</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>hidráulica</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -2260,7 +2264,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2283,50 +2287,54 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>op1</t>
+          <t>op4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ordem54</t>
+          <t>ordem27</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>pintura | solda</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>alvenaria | solda | hidráulica</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>pintura</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>NOK</t>
@@ -2334,11 +2342,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2352,62 +2360,66 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>op1</t>
+          <t>op4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ordem63</t>
+          <t>ordem65</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>elétrica | alvenaria</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>alvenaria | solda | hidráulica</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="L28" t="n">
-        <v>100</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>elétrica</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2421,34 +2433,34 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>op1</t>
+          <t>op4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ordem85</t>
+          <t>ordem86</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>alvenaria | solda</t>
+          <t>solda</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>alvenaria | solda | hidráulica</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2456,10 +2468,10 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L29" t="n">
         <v>100</v>
@@ -2472,11 +2484,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2490,38 +2502,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>op1</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ordem88</t>
+          <t>ordem85</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>pintura</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -2541,11 +2553,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2559,53 +2571,57 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>op3</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ordem62</t>
+          <t>ordem87</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>solda | elétrica</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>alvenaria | elétrica</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="L31" t="n">
-        <v>100</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>solda</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2628,57 +2644,53 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>op4</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ordem17</t>
+          <t>ordem94</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>pintura</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>alvenaria | pintura | elétrica</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L32" t="n">
-        <v>50</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>solda</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2701,22 +2713,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>op4</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ordem42</t>
+          <t>ordem40</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>solda | pintura</t>
+          <t>pintura | elétrica</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>alvenaria | pintura | elétrica</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2725,28 +2737,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L33" t="n">
         <v>50</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2774,54 +2786,50 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>op5</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ordem43</t>
+          <t>ordem28</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>solda | elétrica</t>
+          <t>solda | hidráulica</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>hidráulica | solda | pintura</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L34" t="n">
-        <v>50</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>elétrica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2847,12 +2855,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>op5</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ordem51</t>
+          <t>ordem98</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2862,30 +2870,30 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>hidráulica | solda | pintura</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L35" t="n">
         <v>100</v>
@@ -2893,16 +2901,16 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2916,17 +2924,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>op5</t>
+          <t>op7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ordem41</t>
+          <t>ordem15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>elétrica | solda</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2936,42 +2944,46 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>50</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>elétrica</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
         <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>100</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>2</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2985,50 +2997,54 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ordem34</t>
+          <t>ordem30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>hidráulica | solda | pintura</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>alvenaria</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
           <t>NOK</t>
@@ -3054,34 +3070,34 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ordem49</t>
+          <t>ordem92</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>elétrica | pintura</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>hidráulica | solda | pintura</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3089,15 +3105,19 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="L38" t="n">
-        <v>100</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>elétrica</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>NOK</t>
@@ -3109,7 +3129,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3123,22 +3143,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ordem57</t>
+          <t>ordem11</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>hidráulica | solda</t>
+          <t>solda | alvenaria</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>elétrica | solda</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3147,28 +3167,28 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39" t="n">
         <v>7</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>50</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>alvenaria</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3178,11 +3198,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3196,22 +3216,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ordem67</t>
+          <t>ordem50</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>hidráulica | pintura</t>
+          <t>elétrica | solda</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>elétrica | solda</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3220,14 +3240,14 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>7</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -3237,13 +3257,9 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>50</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>hidráulica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>NOK</t>
@@ -3251,11 +3267,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3269,38 +3285,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op9</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ordem28</t>
+          <t>ordem5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>alvenaria | pintura</t>
+          <t>elétrica | alvenaria</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -3314,12 +3330,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3342,38 +3358,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ordem10</t>
+          <t>ordem34</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>pintura | alvenaria</t>
+          <t>pintura | hidráulica</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -3397,11 +3413,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3415,66 +3431,62 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>op8</t>
+          <t>op9</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ordem84</t>
+          <t>ordem43</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>elétrica | hidráulica</t>
+          <t>alvenaria</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
         <v>9</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L43" t="n">
-        <v>50</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>hidráulica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3488,62 +3500,66 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>op8</t>
+          <t>op9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ordem58</t>
+          <t>ordem4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>hidráulica | pintura</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>9</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>pintura</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3557,53 +3573,57 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op10</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ordem64</t>
+          <t>ordem77</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>solda | hidráulica</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>100</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>solda</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3622,46 +3642,46 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>op10</t>
+          <t>op1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ordem31</t>
+          <t>ordem70</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>pintura | alvenaria</t>
+          <t>elétrica | solda</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>solda | alvenaria</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>7</v>
+      </c>
+      <c r="H46" t="n">
         <v>8</v>
       </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>urgente</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -3671,7 +3691,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>solda</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3699,22 +3719,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>op1</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ordem1</t>
+          <t>ordem61</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3723,14 +3743,14 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>7</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>urgente</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -3745,7 +3765,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3768,22 +3788,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>op1</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ordem30</t>
+          <t>ordem14</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>elétrica | solda</t>
+          <t>solda</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3792,30 +3812,26 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>7</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>urgente</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>50</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>elétrica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>NOK</t>
@@ -3823,15 +3839,15 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -3841,22 +3857,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>op1</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ordem90</t>
+          <t>ordem75</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3865,7 +3881,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H49" t="n">
         <v>7</v>
@@ -3876,10 +3892,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L49" t="n">
         <v>100</v>
@@ -3896,7 +3912,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3910,22 +3926,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>op1</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ordem93</t>
+          <t>ordem88</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>elétrica | alvenaria</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>hidráulica | solda | alvenaria</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3934,26 +3950,30 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
         <v>7</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>urgente</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>100</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>alvenaria</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
           <t>NOK</t>
@@ -3965,11 +3985,11 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -3979,22 +3999,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>op2</t>
+          <t>op3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ordem37</t>
+          <t>ordem76</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>alvenaria | solda</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>hidráulica | solda | alvenaria</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4003,7 +4023,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>8</v>
@@ -4014,10 +4034,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L51" t="n">
         <v>100</v>
@@ -4048,27 +4068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>op4</t>
+          <t>op3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ordem94</t>
+          <t>ordem84</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>alvenaria</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>alvenaria | pintura | elétrica</t>
+          <t>hidráulica | solda | alvenaria</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -4083,10 +4103,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L52" t="n">
         <v>100</v>
@@ -4099,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4117,31 +4137,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>op5</t>
+          <t>op4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ordem18</t>
+          <t>ordem22</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>pintura | solda</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>hidráulica | solda | pintura</t>
+          <t>alvenaria | solda | hidráulica</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>8</v>
@@ -4152,18 +4172,22 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L53" t="n">
-        <v>100</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>pintura</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4186,22 +4210,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ordem21</t>
+          <t>ordem36</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>solda | alvenaria</t>
+          <t>elétrica | solda</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>alvenaria | solda | hidráulica</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4210,28 +4234,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L54" t="n">
         <v>50</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>alvenaria</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4259,22 +4283,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ordem70</t>
+          <t>ordem56</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>hidráulica | solda</t>
+          <t>solda</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>alvenaria | solda | hidráulica</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4283,10 +4307,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -4294,19 +4318,15 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>50</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>hidráulica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>NOK</t>
@@ -4322,7 +4342,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -4332,50 +4352,54 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ordem91</t>
+          <t>ordem13</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>100</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>hidráulica</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4383,15 +4407,15 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>atrasada</t>
+          <t>atendida</t>
         </is>
       </c>
     </row>
@@ -4401,53 +4425,57 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ordem2</t>
+          <t>ordem57</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>alvenaria | pintura</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>7</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>urgente</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>100</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>alvenaria</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4470,52 +4498,52 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ordem4</t>
+          <t>ordem80</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>pintura | alvenaria</t>
+          <t>elétrica | pintura</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H58" t="n">
         <v>7</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
         <v>50</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4529,11 +4557,11 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -4543,38 +4571,38 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ordem7</t>
+          <t>ordem91</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>alvenaria | solda</t>
+          <t>pintura</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>7</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -4584,13 +4612,9 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>50</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>solda</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4621,29 +4645,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ordem33</t>
+          <t>ordem2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>pintura | solda</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>hidráulica | solda | pintura</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G60" t="n">
         <v>7</v>
       </c>
       <c r="H60" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -4662,16 +4686,16 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -4690,29 +4714,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ordem35</t>
+          <t>ordem90</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>solda | hidráulica</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>hidráulica | solda | pintura</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -4720,10 +4744,10 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>100</v>
@@ -4731,20 +4755,20 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>atrasada</t>
+          <t>atendida</t>
         </is>
       </c>
     </row>
@@ -4754,12 +4778,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op9</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ordem40</t>
+          <t>ordem9</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4769,30 +4793,30 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>100</v>
@@ -4800,16 +4824,16 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -4823,62 +4847,66 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op9</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ordem83</t>
+          <t>ordem38</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>alvenaria | elétrica</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>50</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>elétrica</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
         <v>1</v>
-      </c>
-      <c r="L63" t="n">
-        <v>100</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="P63" t="n">
-        <v>27</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -4892,45 +4920,45 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op9</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ordem13</t>
+          <t>ordem99</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>solda | hidráulica</t>
+          <t>hidráulica | solda</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
         <v>50</v>
@@ -4942,7 +4970,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4951,11 +4979,11 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -4965,66 +4993,70 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ordem77</t>
+          <t>ordem33</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>pintura | alvenaria</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H65" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L65" t="n">
-        <v>100</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>pintura</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>atrasada</t>
+          <t>atendida</t>
         </is>
       </c>
     </row>
@@ -5034,22 +5066,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>op8</t>
+          <t>op10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ordem79</t>
+          <t>ordem45</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>pintura | alvenaria</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5058,30 +5090,26 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
         <v>9</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>50</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>pintura</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>OK</t>
@@ -5089,15 +5117,15 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -5107,22 +5135,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>op8</t>
+          <t>op10</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ordem61</t>
+          <t>ordem7</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>pintura | alvenaria</t>
+          <t>hidráulica</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5131,33 +5159,29 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>9</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>50</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>pintura</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5166,76 +5190,80 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>op8</t>
+          <t>op1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ordem95</t>
+          <t>ordem47</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>alvenaria | elétrica</t>
+          <t>pintura | elétrica</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J68" t="n">
         <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>100</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>pintura</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5245,26 +5273,26 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ordem19</t>
+          <t>ordem52</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>hidráulica</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5273,30 +5301,26 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H69" t="n">
         <v>8</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J69" t="n">
         <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>50</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>solda</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>OK</t>
@@ -5304,11 +5328,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5318,66 +5342,70 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ordem24</t>
+          <t>ordem29</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica</t>
+          <t>pintura | solda</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J70" t="n">
         <v>3</v>
       </c>
       <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>50</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>pintura</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
         <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>100</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="P70" t="n">
-        <v>3</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5387,49 +5415,49 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ordem82</t>
+          <t>ordem63</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J71" t="n">
         <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
         <v>100</v>
@@ -5437,57 +5465,57 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>op10</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ordem14</t>
+          <t>ordem73</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>solda</t>
+          <t>hidráulica</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>solda | alvenaria</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -5495,10 +5523,10 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>100</v>
@@ -5511,11 +5539,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -5525,61 +5553,57 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>op10</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ordem69</t>
+          <t>ordem78</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>solda | hidráulica</t>
+          <t>hidráulica</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>solda | alvenaria</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J73" t="n">
+        <v>3</v>
+      </c>
+      <c r="K73" t="n">
         <v>1</v>
       </c>
-      <c r="K73" t="n">
-        <v>2</v>
-      </c>
       <c r="L73" t="n">
-        <v>50</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>hidráulica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5588,11 +5612,11 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>atrasada</t>
+          <t>atendida</t>
         </is>
       </c>
     </row>
@@ -5602,17 +5626,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>op1</t>
+          <t>op3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ordem59</t>
+          <t>ordem17</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>hidráulica | solda</t>
+          <t>solda</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5622,14 +5646,14 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -5637,10 +5661,10 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>100</v>
@@ -5661,7 +5685,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>atrasada</t>
+          <t>atendida</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5695,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>op2</t>
+          <t>op3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5681,12 +5705,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>alvenaria</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>hidráulica | solda | alvenaria</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5702,7 +5726,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>urgente</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -5717,7 +5741,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5740,22 +5764,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>op2</t>
+          <t>op4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ordem100</t>
+          <t>ordem26</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria</t>
+          <t>alvenaria</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>alvenaria | solda | hidráulica</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5764,30 +5788,26 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H76" t="n">
         <v>8</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="n">
         <v>1</v>
       </c>
-      <c r="K76" t="n">
-        <v>3</v>
-      </c>
       <c r="L76" t="n">
-        <v>50</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>hidráulica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>NOK</t>
@@ -5803,7 +5823,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>atrasada</t>
+          <t>atendida</t>
         </is>
       </c>
     </row>
@@ -5813,45 +5833,45 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>op4</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ordem36</t>
+          <t>ordem20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>alvenaria | pintura</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>alvenaria | pintura | elétrica</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>100</v>
@@ -5882,34 +5902,34 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>op4</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ordem60</t>
+          <t>ordem58</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>alvenaria | pintura | elétrica</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -5923,25 +5943,21 @@
         <v>-1</v>
       </c>
       <c r="L78" t="n">
-        <v>50</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>hidráulica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -5955,12 +5971,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>op5</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ordem98</t>
+          <t>ordem32</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5970,30 +5986,30 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>hidráulica | solda | pintura</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>100</v>
@@ -6001,16 +6017,16 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6024,7 +6040,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6034,28 +6050,28 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>solda | hidráulica</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>hidráulica | solda | pintura</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -6069,12 +6085,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6102,40 +6118,40 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ordem38</t>
+          <t>ordem64</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>pintura</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>hidráulica | solda | pintura</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H81" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>100</v>
@@ -6148,11 +6164,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6171,33 +6187,33 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ordem8</t>
+          <t>ordem82</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>pintura | alvenaria</t>
+          <t>hidráulica</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>hidráulica | solda | pintura</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -6207,13 +6223,9 @@
         <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>50</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>pintura</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>OK</t>
@@ -6225,7 +6237,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6239,34 +6251,34 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op9</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ordem75</t>
+          <t>ordem79</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica</t>
+          <t>alvenaria | elétrica</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>hidráulica | alvenaria</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -6274,31 +6286,35 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L83" t="n">
-        <v>100</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>elétrica</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -6308,34 +6324,34 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>op7</t>
+          <t>op10</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ordem66</t>
+          <t>ordem19</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>solda | hidráulica</t>
+          <t>alvenaria</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>hidráulica | alvenaria | elétrica</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6343,19 +6359,15 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L84" t="n">
-        <v>50</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>solda</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>OK</t>
@@ -6363,11 +6375,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -6381,22 +6393,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>op8</t>
+          <t>op10</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ordem68</t>
+          <t>ordem1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>alvenaria | solda</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6405,7 +6417,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>9</v>
@@ -6416,56 +6428,60 @@
         </is>
       </c>
       <c r="J85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>50</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>solda</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
         <v>1</v>
       </c>
-      <c r="K85" t="n">
-        <v>3</v>
-      </c>
-      <c r="L85" t="n">
-        <v>100</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>atrasada</t>
+          <t>atendida</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ordem26</t>
+          <t>ordem97</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>solda | pintura</t>
+          <t>solda | hidráulica</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6474,7 +6490,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H86" t="n">
         <v>8</v>
@@ -6485,10 +6501,10 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
         <v>50</v>
@@ -6513,32 +6529,32 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ordem6</t>
+          <t>ordem39</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>pintura | elétrica</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>elétrica | hidráulica</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6547,7 +6563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
         <v>8</v>
@@ -6558,15 +6574,19 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>100</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>pintura</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
           <t>OK</t>
@@ -6578,59 +6598,59 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ordem47</t>
+          <t>ordem24</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>solda</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G88" t="n">
         <v>6</v>
       </c>
       <c r="H88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88" t="n">
         <v>100</v>
@@ -6643,63 +6663,63 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ordem23</t>
+          <t>ordem49</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="J89" t="n">
         <v>4</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>100</v>
@@ -6707,7 +6727,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6716,7 +6736,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -6726,74 +6746,70 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>op10</t>
+          <t>op2</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ordem81</t>
+          <t>ordem18</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>solda | alvenaria</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>50</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>elétrica</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -6808,29 +6824,29 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ordem15</t>
+          <t>ordem68</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>elétrica | alvenaria</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>elétrica | hidráulica | solda</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -6838,27 +6854,31 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L91" t="n">
-        <v>100</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>alvenaria</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -6872,34 +6892,34 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>op3</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ordem96</t>
+          <t>ordem3</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>elétrica | pintura</t>
+          <t>pintura</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>alvenaria | elétrica</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G92" t="n">
         <v>5</v>
       </c>
       <c r="H92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -6907,22 +6927,18 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L92" t="n">
-        <v>50</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>pintura</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6935,7 +6951,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -6945,62 +6961,66 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>op4</t>
+          <t>op5</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ordem25</t>
+          <t>ordem66</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>alvenaria | pintura | elétrica</t>
+          <t>elétrica | pintura | alvenaria</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>pleno</t>
+          <t>especialista</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>100</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>hidráulica</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7014,53 +7034,57 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>op5</t>
+          <t>op6</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ordem97</t>
+          <t>ordem54</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>hidráulica</t>
+          <t>alvenaria | hidráulica</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>hidráulica | solda | pintura</t>
+          <t>pintura | solda | hidráulica</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H94" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>100</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>alvenaria</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7073,7 +7097,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>atrasada</t>
+          <t>atendida</t>
         </is>
       </c>
     </row>
@@ -7083,66 +7107,70 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>op6</t>
+          <t>op7</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ordem55</t>
+          <t>ordem6</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>pintura</t>
+          <t>pintura | alvenaria</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>pintura | solda</t>
+          <t>hidráulica | solda | pintura</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>júnior</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>urgente</t>
+          <t>média</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
+        <v>3</v>
+      </c>
+      <c r="L95" t="n">
+        <v>50</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>alvenaria</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
         <v>0</v>
       </c>
-      <c r="L95" t="n">
-        <v>100</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>NOK</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>1</v>
-      </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -7152,22 +7180,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>op8</t>
+          <t>op7</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ordem86</t>
+          <t>ordem48</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>alvenaria</t>
+          <t>pintura</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>hidráulica | solda | pintura</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7176,7 +7204,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H96" t="n">
         <v>9</v>
@@ -7187,10 +7215,10 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L96" t="n">
         <v>100</v>
@@ -7221,45 +7249,45 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op7</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ordem72</t>
+          <t>ordem53</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>elétrica</t>
+          <t>hidráulica | pintura</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>hidráulica | solda | pintura</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>pleno</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>urgente</t>
+          <t>baixa</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
         <v>100</v>
@@ -7272,11 +7300,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -7290,34 +7318,34 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>op9</t>
+          <t>op8</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ordem16</t>
+          <t>ordem10</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>elétrica | alvenaria</t>
+          <t>solda | hidráulica</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>hidráulica | elétrica | pintura</t>
+          <t>elétrica | solda</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>especialista</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -7325,22 +7353,22 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
         <v>50</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>alvenaria</t>
+          <t>hidráulica</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7353,7 +7381,7 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>atendida</t>
+          <t>atrasada</t>
         </is>
       </c>
     </row>
@@ -7363,38 +7391,38 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>op10</t>
+          <t>op8</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ordem71</t>
+          <t>ordem16</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>solda | pintura</t>
+          <t>elétrica</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>solda | alvenaria</t>
+          <t>elétrica | solda</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>sênior</t>
+          <t>júnior</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H99" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>urgente</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -7404,25 +7432,21 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>50</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>pintura</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -7436,68 +7460,133 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>op8</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ordem42</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>solda</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>elétrica | solda</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>júnior</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>8</v>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>100</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>atendida</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>op10</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>ordem5</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>alvenaria | elétrica</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>solda | alvenaria</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>sênior</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ordem8</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>hidráulica</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>alvenaria | hidráulica</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>pleno</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
         <v>7</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H101" t="n">
         <v>9</v>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>3</v>
-      </c>
-      <c r="K100" t="n">
-        <v>2</v>
-      </c>
-      <c r="L100" t="n">
-        <v>50</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>elétrica</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3</v>
+      </c>
+      <c r="L101" t="n">
+        <v>100</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q100" t="inlineStr">
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="inlineStr">
         <is>
           <t>atrasada</t>
         </is>
